--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CF/15/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CF/15/seed4/result_data_KNN.xlsx
@@ -491,7 +491,7 @@
         <v>-6.85</v>
       </c>
       <c r="E3" t="n">
-        <v>12.628</v>
+        <v>12.782</v>
       </c>
     </row>
     <row r="4">
@@ -587,7 +587,7 @@
         <v>10.18</v>
       </c>
       <c r="C9" t="n">
-        <v>-12.024</v>
+        <v>-11.445</v>
       </c>
       <c r="D9" t="n">
         <v>-9.9</v>
@@ -627,7 +627,7 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.396</v>
+        <v>12.914</v>
       </c>
     </row>
     <row r="12">
@@ -740,7 +740,7 @@
         <v>5.81</v>
       </c>
       <c r="C18" t="n">
-        <v>-13.934</v>
+        <v>-12.397</v>
       </c>
       <c r="D18" t="n">
         <v>-8.869999999999999</v>
@@ -774,7 +774,7 @@
         <v>5.51</v>
       </c>
       <c r="C20" t="n">
-        <v>-13.362</v>
+        <v>-12.581</v>
       </c>
       <c r="D20" t="n">
         <v>-8.140000000000001</v>
